--- a/math.xlsx
+++ b/math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="22700" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>subject</t>
   </si>
@@ -65,6 +65,21 @@
     <t>subjects/math/2025/M/qp-202505-mathematics-p43</t>
   </si>
   <si>
+    <t>1.html</t>
+  </si>
+  <si>
+    <t>2.html</t>
+  </si>
+  <si>
+    <t>3.html</t>
+  </si>
+  <si>
+    <t>4.html</t>
+  </si>
+  <si>
+    <t>5.html</t>
+  </si>
+  <si>
     <t>6.html</t>
   </si>
   <si>
@@ -75,9 +90,6 @@
   </si>
   <si>
     <t>7.html</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>S1</t>
@@ -1247,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1304,6 +1316,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1324,6 +1339,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -1339,102 +1357,105 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>2025</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>2025</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>2025</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2025</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1445,18 +1466,156 @@
         <v>2025</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/math.xlsx
+++ b/math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="14520"/>
+    <workbookView windowWidth="22700" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>subject</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>qp-202505-mathematics-p51</t>
+  </si>
+  <si>
+    <t>subjects/math/2025/S1/qp-202505-mathematics-p51</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1613,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2"/>
     </row>
